--- a/Информация о проходах/Ляплина Полина Григорьевна.xlsx
+++ b/Информация о проходах/Ляплина Полина Григорьевна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-13 08:50:59</t>
+          <t>2024-06-11 08:56:32</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-13 18:02:41</t>
+          <t>2024-06-11 17:02:04</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-05-14 08:49:46</t>
+          <t>2024-06-13 08:33:21</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-05-14 18:03:45</t>
+          <t>2024-06-13 12:53:53</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-05-15 09:00:59</t>
+          <t>2024-06-13 13:17:02</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-05-15 18:01:01</t>
+          <t>2024-06-13 18:06:58</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-05-16 09:03:41</t>
+          <t>2024-06-14 12:17:14</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-05-16 15:00:15</t>
+          <t>2024-06-14 18:24:50</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-05-20 09:04:02</t>
+          <t>2024-06-16 08:52:16</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-05-20 19:25:53</t>
+          <t>2024-06-16 14:02:30</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-05-21 12:51:47</t>
+          <t>2024-06-17 11:35:21</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-05-21 19:32:32</t>
+          <t>2024-06-17 17:55:18</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-05-22 09:09:19</t>
+          <t>2024-06-18 08:55:46</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-05-22 17:58:43</t>
+          <t>2024-06-18 18:00:08</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-05-23 08:59:54</t>
+          <t>2024-06-19 09:05:17</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-05-23 12:37:45</t>
+          <t>2024-06-19 18:01:02</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-05-24 08:57:05</t>
+          <t>2024-06-20 09:01:10</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-05-24 16:06:36</t>
+          <t>2024-06-20 17:59:57</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-05-26 08:04:18</t>
+          <t>2024-06-21 09:05:22</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-05-26 17:00:48</t>
+          <t>2024-06-21 17:59:13</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-05-27 08:44:13</t>
+          <t>2024-06-25 08:49:48</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-05-27 17:59:24</t>
+          <t>2024-06-25 18:00:19</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024-05-28 08:55:43</t>
+          <t>2024-06-26 09:56:30</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,263 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-05-28 17:58:27</t>
+          <t>2024-06-26 19:00:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ляплина Полина Григорьевна</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Ведущий менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024-06-27 08:58:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ляплина Полина Григорьевна</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Ведущий менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024-06-27 12:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ляплина Полина Григорьевна</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ведущий менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024-06-28 08:57:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ляплина Полина Григорьевна</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Ведущий менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2024-06-28 15:56:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ляплина Полина Григорьевна</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ведущий менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2024-07-01 09:00:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ляплина Полина Григорьевна</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ведущий менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2024-07-01 13:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ляплина Полина Григорьевна</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ведущий менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2024-07-02 08:56:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ляплина Полина Григорьевна</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ведущий менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2024-07-02 18:03:40</t>
         </is>
       </c>
     </row>
